--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/CALIFORNIA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/CALIFORNIA_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2389"/>
+  <dimension ref="A1:D2383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C11">
@@ -517,7 +517,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C12">
@@ -600,7 +600,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C18">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C46">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C47">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C51">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C53">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C63">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C70">
@@ -1681,7 +1681,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C100">
@@ -1694,7 +1694,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C101">
@@ -1746,7 +1746,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C105">
@@ -1798,7 +1798,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C109">
@@ -1967,7 +1967,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C122">
@@ -1980,7 +1980,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C123">
@@ -2739,7 +2739,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C181">
@@ -2791,7 +2791,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C185">
@@ -3103,7 +3103,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C209">
@@ -3116,7 +3116,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C210">
@@ -3207,7 +3207,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C217">
@@ -3233,7 +3233,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3277,7 +3277,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C222">
@@ -3472,7 +3472,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3672,7 +3672,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C252">
@@ -3885,7 +3885,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C268">
@@ -3942,7 +3942,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C272">
@@ -4137,7 +4137,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C287">
@@ -4228,7 +4228,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C294">
@@ -4280,7 +4280,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C298">
@@ -4293,7 +4293,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C299">
@@ -4306,7 +4306,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C300">
@@ -4319,7 +4319,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C301">
@@ -4449,12 +4449,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C311">
@@ -4493,7 +4493,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C314">
@@ -4506,7 +4506,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C315">
@@ -4519,7 +4519,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C316">
@@ -4610,7 +4610,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C323">
@@ -4714,7 +4714,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C331">
@@ -4792,7 +4792,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C337">
@@ -4896,7 +4896,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C345">
@@ -5000,7 +5000,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C353">
@@ -5013,7 +5013,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C354">
@@ -5234,7 +5234,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C371">
@@ -5416,7 +5416,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C385">
@@ -5429,7 +5429,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C386">
@@ -5442,7 +5442,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C387">
@@ -5455,7 +5455,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C388">
@@ -5481,7 +5481,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C390">
@@ -5507,7 +5507,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C392">
@@ -5637,7 +5637,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C402">
@@ -5650,7 +5650,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C403">
@@ -5832,7 +5832,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C417">
@@ -5923,7 +5923,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C424">
@@ -5936,7 +5936,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C425">
@@ -5975,7 +5975,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C428">
@@ -5988,7 +5988,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C429">
@@ -6136,7 +6136,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C440">
@@ -6149,7 +6149,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C441">
@@ -6266,7 +6266,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C450">
@@ -6318,7 +6318,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C454">
@@ -6409,7 +6409,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C461">
@@ -6474,7 +6474,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C466">
@@ -6500,7 +6500,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C468">
@@ -6526,7 +6526,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C470">
@@ -6539,7 +6539,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C471">
@@ -6565,7 +6565,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C473">
@@ -6591,7 +6591,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C475">
@@ -6656,7 +6656,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C480">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C486">
@@ -6778,7 +6778,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C489">
@@ -6791,7 +6791,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C490">
@@ -6843,7 +6843,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C494">
@@ -6856,7 +6856,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C495">
@@ -6882,7 +6882,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C497">
@@ -6895,7 +6895,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C498">
@@ -6934,7 +6934,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C501">
@@ -6947,7 +6947,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C502">
@@ -6960,7 +6960,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C503">
@@ -6973,7 +6973,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C504">
@@ -6986,7 +6986,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Cochoapa el Grande</t>
+          <t>Cochoapa El Grande</t>
         </is>
       </c>
       <c r="C505">
@@ -7051,7 +7051,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C510">
@@ -7064,7 +7064,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C511">
@@ -7116,7 +7116,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C515">
@@ -7129,7 +7129,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C516">
@@ -7220,7 +7220,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C523">
@@ -7233,7 +7233,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C524">
@@ -7272,7 +7272,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C527">
@@ -7285,7 +7285,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>José Joaquín de Herrera</t>
+          <t>José Joaquín De Herrera</t>
         </is>
       </c>
       <c r="C528">
@@ -7324,7 +7324,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C531">
@@ -7402,7 +7402,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C537">
@@ -7545,7 +7545,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C548">
@@ -7584,7 +7584,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C551">
@@ -7610,7 +7610,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C553">
@@ -7662,7 +7662,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C557">
@@ -7675,7 +7675,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C558">
@@ -7701,7 +7701,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C560">
@@ -7766,7 +7766,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C565">
@@ -7862,7 +7862,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C572">
@@ -7953,7 +7953,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C579">
@@ -7966,7 +7966,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C580">
@@ -8044,7 +8044,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C586">
@@ -8135,7 +8135,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C593">
@@ -8187,7 +8187,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C597">
@@ -8226,7 +8226,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C600">
@@ -8317,7 +8317,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C607">
@@ -8330,7 +8330,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C608">
@@ -8343,7 +8343,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C609">
@@ -8356,7 +8356,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C610">
@@ -8369,7 +8369,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C611">
@@ -8395,7 +8395,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C613">
@@ -8408,7 +8408,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C614">
@@ -8421,7 +8421,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C615">
@@ -8460,7 +8460,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C618">
@@ -8538,7 +8538,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C624">
@@ -8551,7 +8551,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C625">
@@ -8603,7 +8603,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C629">
@@ -8629,7 +8629,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C631">
@@ -8642,7 +8642,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C632">
@@ -8681,7 +8681,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C635">
@@ -8798,7 +8798,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C644">
@@ -8811,7 +8811,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C645">
@@ -8824,7 +8824,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C646">
@@ -8876,7 +8876,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C650">
@@ -8889,7 +8889,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C651">
@@ -8959,7 +8959,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C656">
@@ -8972,7 +8972,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C657">
@@ -9037,7 +9037,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C662">
@@ -9076,7 +9076,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C665">
@@ -9102,7 +9102,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C667">
@@ -9180,7 +9180,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C673">
@@ -9271,7 +9271,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C680">
@@ -9284,7 +9284,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C681">
@@ -9414,7 +9414,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C691">
@@ -9492,7 +9492,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C697">
@@ -9518,7 +9518,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C699">
@@ -9531,7 +9531,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C700">
@@ -9583,7 +9583,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C704">
@@ -9661,7 +9661,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C710">
@@ -9674,7 +9674,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C711">
@@ -9778,7 +9778,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C719">
@@ -9843,7 +9843,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C724">
@@ -9856,7 +9856,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C725">
@@ -9895,7 +9895,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C728">
@@ -9908,7 +9908,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C729">
@@ -9960,7 +9960,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C733">
@@ -9973,7 +9973,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C734">
@@ -9999,7 +9999,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C736">
@@ -10012,7 +10012,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C737">
@@ -10025,7 +10025,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C738">
@@ -10064,7 +10064,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C741">
@@ -10077,7 +10077,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C742">
@@ -10116,7 +10116,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C745">
@@ -10168,7 +10168,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C749">
@@ -10181,7 +10181,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C750">
@@ -10220,7 +10220,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C753">
@@ -10233,7 +10233,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C754">
@@ -10376,7 +10376,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C765">
@@ -10389,7 +10389,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C766">
@@ -10402,7 +10402,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C767">
@@ -10415,7 +10415,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C768">
@@ -10480,7 +10480,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C773">
@@ -10493,7 +10493,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C774">
@@ -10532,7 +10532,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C777">
@@ -10558,7 +10558,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C779">
@@ -10571,7 +10571,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C780">
@@ -10597,7 +10597,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -10888,7 +10888,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C804">
@@ -10914,7 +10914,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C806">
@@ -11811,7 +11811,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C875">
@@ -12180,7 +12180,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C903">
@@ -12310,7 +12310,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C913">
@@ -12362,7 +12362,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C917">
@@ -12440,7 +12440,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C923">
@@ -12466,7 +12466,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C925">
@@ -12596,7 +12596,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C935">
@@ -12653,7 +12653,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C939">
@@ -12666,7 +12666,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C940">
@@ -12731,7 +12731,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C945">
@@ -12822,7 +12822,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C952">
@@ -13191,7 +13191,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C980">
@@ -13269,7 +13269,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C986">
@@ -13339,7 +13339,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C991">
@@ -13443,7 +13443,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C999">
@@ -13495,7 +13495,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C1003">
@@ -13521,7 +13521,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C1005">
@@ -13534,7 +13534,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C1006">
@@ -13560,7 +13560,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C1008">
@@ -13586,7 +13586,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C1010">
@@ -13625,7 +13625,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C1013">
@@ -13664,7 +13664,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C1016">
@@ -13677,7 +13677,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C1017">
@@ -13703,7 +13703,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C1019">
@@ -13729,7 +13729,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1021">
@@ -13742,7 +13742,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C1022">
@@ -13768,7 +13768,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C1024">
@@ -13781,7 +13781,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C1025">
@@ -13794,7 +13794,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C1026">
@@ -13807,7 +13807,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C1027">
@@ -13820,7 +13820,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C1028">
@@ -13833,7 +13833,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C1029">
@@ -13846,7 +13846,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C1030">
@@ -13859,7 +13859,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C1031">
@@ -13872,7 +13872,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C1032">
@@ -13898,7 +13898,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C1034">
@@ -14067,7 +14067,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1047">
@@ -14093,7 +14093,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C1049">
@@ -14119,7 +14119,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C1051">
@@ -14145,7 +14145,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1053">
@@ -14158,7 +14158,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C1054">
@@ -14184,7 +14184,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C1056">
@@ -14223,7 +14223,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C1059">
@@ -14249,7 +14249,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C1061">
@@ -14262,7 +14262,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C1062">
@@ -14275,7 +14275,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C1063">
@@ -14301,7 +14301,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C1065">
@@ -14314,7 +14314,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C1066">
@@ -14340,7 +14340,7 @@
     <row r="1068">
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1068">
@@ -14457,7 +14457,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C1077">
@@ -14691,7 +14691,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C1095">
@@ -14769,7 +14769,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C1101">
@@ -14808,7 +14808,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C1104">
@@ -15029,7 +15029,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C1121">
@@ -15055,7 +15055,7 @@
     <row r="1123">
       <c r="B1123" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C1123">
@@ -15276,7 +15276,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C1140">
@@ -15536,7 +15536,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C1160">
@@ -15549,7 +15549,7 @@
     <row r="1161">
       <c r="B1161" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C1161">
@@ -15653,7 +15653,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C1169">
@@ -16186,7 +16186,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C1210">
@@ -16199,7 +16199,7 @@
     <row r="1211">
       <c r="B1211" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C1211">
@@ -16212,7 +16212,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1212">
@@ -16485,7 +16485,7 @@
     <row r="1233">
       <c r="B1233" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C1233">
@@ -16602,7 +16602,7 @@
     <row r="1242">
       <c r="B1242" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C1242">
@@ -16953,7 +16953,7 @@
     <row r="1269">
       <c r="B1269" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1269">
@@ -16966,7 +16966,7 @@
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>San Miguel del Río</t>
+          <t>San Miguel Del Río</t>
         </is>
       </c>
       <c r="C1270">
@@ -16979,7 +16979,7 @@
     <row r="1271">
       <c r="B1271" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C1271">
@@ -17109,7 +17109,7 @@
     <row r="1281">
       <c r="B1281" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1281">
@@ -17577,7 +17577,7 @@
     <row r="1317">
       <c r="B1317" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1317">
@@ -17590,7 +17590,7 @@
     <row r="1318">
       <c r="B1318" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1318">
@@ -17603,7 +17603,7 @@
     <row r="1319">
       <c r="B1319" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1319">
@@ -17616,7 +17616,7 @@
     <row r="1320">
       <c r="B1320" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1320">
@@ -17902,7 +17902,7 @@
     <row r="1342">
       <c r="B1342" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1342">
@@ -18149,7 +18149,7 @@
     <row r="1361">
       <c r="B1361" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1361">
@@ -18227,7 +18227,7 @@
     <row r="1367">
       <c r="B1367" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C1367">
@@ -18266,7 +18266,7 @@
     <row r="1370">
       <c r="B1370" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1370">
@@ -18279,7 +18279,7 @@
     <row r="1371">
       <c r="B1371" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1371">
@@ -18331,7 +18331,7 @@
     <row r="1375">
       <c r="B1375" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1375">
@@ -18578,7 +18578,7 @@
     <row r="1394">
       <c r="B1394" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1394">
@@ -18981,7 +18981,7 @@
     <row r="1425">
       <c r="B1425" t="inlineStr">
         <is>
-          <t>Santa María del Rosario</t>
+          <t>Santa María Del Rosario</t>
         </is>
       </c>
       <c r="C1425">
@@ -18994,7 +18994,7 @@
     <row r="1426">
       <c r="B1426" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C1426">
@@ -19007,7 +19007,7 @@
     <row r="1427">
       <c r="B1427" t="inlineStr">
         <is>
-          <t>Santa María la Asunción</t>
+          <t>Santa María La Asunción</t>
         </is>
       </c>
       <c r="C1427">
@@ -19670,7 +19670,7 @@
     <row r="1478">
       <c r="B1478" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C1478">
@@ -19943,7 +19943,7 @@
     <row r="1499">
       <c r="B1499" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1499">
@@ -20073,7 +20073,7 @@
     <row r="1509">
       <c r="B1509" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C1509">
@@ -20099,7 +20099,7 @@
     <row r="1511">
       <c r="B1511" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1511">
@@ -20112,7 +20112,7 @@
     <row r="1512">
       <c r="B1512" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C1512">
@@ -20138,7 +20138,7 @@
     <row r="1514">
       <c r="B1514" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1514">
@@ -20151,7 +20151,7 @@
     <row r="1515">
       <c r="B1515" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C1515">
@@ -20164,7 +20164,7 @@
     <row r="1516">
       <c r="B1516" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1516">
@@ -20177,7 +20177,7 @@
     <row r="1517">
       <c r="B1517" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1517">
@@ -20203,7 +20203,7 @@
     <row r="1519">
       <c r="B1519" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1519">
@@ -20216,7 +20216,7 @@
     <row r="1520">
       <c r="B1520" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1520">
@@ -20229,7 +20229,7 @@
     <row r="1521">
       <c r="B1521" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1521">
@@ -20255,7 +20255,7 @@
     <row r="1523">
       <c r="B1523" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1523">
@@ -20268,7 +20268,7 @@
     <row r="1524">
       <c r="B1524" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1524">
@@ -20346,7 +20346,7 @@
     <row r="1530">
       <c r="B1530" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1530">
@@ -20359,7 +20359,7 @@
     <row r="1531">
       <c r="B1531" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1531">
@@ -20372,7 +20372,7 @@
     <row r="1532">
       <c r="B1532" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C1532">
@@ -20385,7 +20385,7 @@
     <row r="1533">
       <c r="B1533" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1533">
@@ -20398,7 +20398,7 @@
     <row r="1534">
       <c r="B1534" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1534">
@@ -20411,7 +20411,7 @@
     <row r="1535">
       <c r="B1535" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1535">
@@ -20424,7 +20424,7 @@
     <row r="1536">
       <c r="B1536" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1536">
@@ -20437,7 +20437,7 @@
     <row r="1537">
       <c r="B1537" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1537">
@@ -20450,7 +20450,7 @@
     <row r="1538">
       <c r="B1538" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1538">
@@ -20489,7 +20489,7 @@
     <row r="1541">
       <c r="B1541" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C1541">
@@ -20528,7 +20528,7 @@
     <row r="1544">
       <c r="B1544" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1544">
@@ -20897,7 +20897,7 @@
     <row r="1572">
       <c r="B1572" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1572">
@@ -20949,7 +20949,7 @@
     <row r="1576">
       <c r="B1576" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1576">
@@ -21079,7 +21079,7 @@
     <row r="1586">
       <c r="B1586" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1586">
@@ -21222,7 +21222,7 @@
     <row r="1597">
       <c r="B1597" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1597">
@@ -21274,7 +21274,7 @@
     <row r="1601">
       <c r="B1601" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1601">
@@ -21287,7 +21287,7 @@
     <row r="1602">
       <c r="B1602" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1602">
@@ -21508,7 +21508,7 @@
     <row r="1619">
       <c r="B1619" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1619">
@@ -21521,7 +21521,7 @@
     <row r="1620">
       <c r="B1620" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1620">
@@ -21586,7 +21586,7 @@
     <row r="1625">
       <c r="B1625" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1625">
@@ -21612,7 +21612,7 @@
     <row r="1627">
       <c r="B1627" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1627">
@@ -21664,7 +21664,7 @@
     <row r="1631">
       <c r="B1631" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1631">
@@ -21807,7 +21807,7 @@
     <row r="1642">
       <c r="B1642" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1642">
@@ -21820,7 +21820,7 @@
     <row r="1643">
       <c r="B1643" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1643">
@@ -21989,7 +21989,7 @@
     <row r="1656">
       <c r="B1656" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1656">
@@ -22119,7 +22119,7 @@
     <row r="1666">
       <c r="B1666" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1666">
@@ -22340,7 +22340,7 @@
     <row r="1683">
       <c r="B1683" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1683">
@@ -22405,7 +22405,7 @@
     <row r="1688">
       <c r="B1688" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1688">
@@ -22418,7 +22418,7 @@
     <row r="1689">
       <c r="B1689" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1689">
@@ -22522,7 +22522,7 @@
     <row r="1697">
       <c r="B1697" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1697">
@@ -22626,7 +22626,7 @@
     <row r="1705">
       <c r="B1705" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1705">
@@ -22639,7 +22639,7 @@
     <row r="1706">
       <c r="B1706" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1706">
@@ -22652,7 +22652,7 @@
     <row r="1707">
       <c r="B1707" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1707">
@@ -22717,7 +22717,7 @@
     <row r="1712">
       <c r="B1712" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1712">
@@ -22743,7 +22743,7 @@
     <row r="1714">
       <c r="B1714" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1714">
@@ -22756,7 +22756,7 @@
     <row r="1715">
       <c r="B1715" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1715">
@@ -22769,7 +22769,7 @@
     <row r="1716">
       <c r="B1716" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1716">
@@ -22834,7 +22834,7 @@
     <row r="1721">
       <c r="B1721" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1721">
@@ -22990,7 +22990,7 @@
     <row r="1733">
       <c r="B1733" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1733">
@@ -23016,7 +23016,7 @@
     <row r="1735">
       <c r="B1735" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1735">
@@ -23068,7 +23068,7 @@
     <row r="1739">
       <c r="B1739" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1739">
@@ -23159,7 +23159,7 @@
     <row r="1746">
       <c r="B1746" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1746">
@@ -23250,7 +23250,7 @@
     <row r="1753">
       <c r="B1753" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C1753">
@@ -23372,7 +23372,7 @@
       </c>
       <c r="B1762" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1762">
@@ -23398,7 +23398,7 @@
     <row r="1764">
       <c r="B1764" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1764">
@@ -23489,7 +23489,7 @@
     <row r="1771">
       <c r="B1771" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1771">
@@ -23502,7 +23502,7 @@
     <row r="1772">
       <c r="B1772" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1772">
@@ -23541,7 +23541,7 @@
     <row r="1775">
       <c r="B1775" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1775">
@@ -23580,7 +23580,7 @@
     <row r="1778">
       <c r="B1778" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1778">
@@ -23798,7 +23798,7 @@
     <row r="1794">
       <c r="B1794" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1794">
@@ -23811,7 +23811,7 @@
     <row r="1795">
       <c r="B1795" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1795">
@@ -23902,7 +23902,7 @@
     <row r="1802">
       <c r="B1802" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1802">
@@ -24019,7 +24019,7 @@
     <row r="1811">
       <c r="B1811" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1811">
@@ -24097,7 +24097,7 @@
     <row r="1817">
       <c r="B1817" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1817">
@@ -24162,7 +24162,7 @@
     <row r="1822">
       <c r="B1822" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1822">
@@ -24188,7 +24188,7 @@
     <row r="1824">
       <c r="B1824" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1824">
@@ -24292,7 +24292,7 @@
     <row r="1832">
       <c r="B1832" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1832">
@@ -24357,7 +24357,7 @@
     <row r="1837">
       <c r="B1837" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1837">
@@ -24370,7 +24370,7 @@
     <row r="1838">
       <c r="B1838" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1838">
@@ -24383,7 +24383,7 @@
     <row r="1839">
       <c r="B1839" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1839">
@@ -24396,7 +24396,7 @@
     <row r="1840">
       <c r="B1840" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1840">
@@ -24409,7 +24409,7 @@
     <row r="1841">
       <c r="B1841" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1841">
@@ -24422,7 +24422,7 @@
     <row r="1842">
       <c r="B1842" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1842">
@@ -25186,7 +25186,7 @@
     <row r="1900">
       <c r="B1900" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1900">
@@ -25355,7 +25355,7 @@
     <row r="1913">
       <c r="B1913" t="inlineStr">
         <is>
-          <t>San Miguel de Horcasitas</t>
+          <t>San Miguel De Horcasitas</t>
         </is>
       </c>
       <c r="C1913">
@@ -25368,7 +25368,7 @@
     <row r="1914">
       <c r="B1914" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C1914">
@@ -25672,7 +25672,7 @@
     <row r="1937">
       <c r="B1937" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1937">
@@ -26132,7 +26132,7 @@
     <row r="1972">
       <c r="B1972" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1972">
@@ -26228,7 +26228,7 @@
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1979">
@@ -26241,7 +26241,7 @@
     <row r="1980">
       <c r="B1980" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1980">
@@ -26254,7 +26254,7 @@
     <row r="1981">
       <c r="B1981" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1981">
@@ -26332,7 +26332,7 @@
     <row r="1987">
       <c r="B1987" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1987">
@@ -26449,7 +26449,7 @@
     <row r="1996">
       <c r="B1996" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1996">
@@ -26501,7 +26501,7 @@
     <row r="2000">
       <c r="B2000" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C2000">
@@ -26514,7 +26514,7 @@
     <row r="2001">
       <c r="B2001" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C2001">
@@ -26553,7 +26553,7 @@
     <row r="2004">
       <c r="B2004" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C2004">
@@ -26605,7 +26605,7 @@
     <row r="2008">
       <c r="B2008" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C2008">
@@ -26618,7 +26618,7 @@
     <row r="2009">
       <c r="B2009" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C2009">
@@ -26722,7 +26722,7 @@
     <row r="2017">
       <c r="B2017" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C2017">
@@ -26761,7 +26761,7 @@
     <row r="2020">
       <c r="B2020" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C2020">
@@ -26917,7 +26917,7 @@
     <row r="2032">
       <c r="B2032" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C2032">
@@ -26943,7 +26943,7 @@
     <row r="2034">
       <c r="A2034" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B2034" t="inlineStr">
@@ -27052,7 +27052,7 @@
     <row r="2042">
       <c r="B2042" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C2042">
@@ -27104,7 +27104,7 @@
     <row r="2046">
       <c r="B2046" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C2046">
@@ -27260,7 +27260,7 @@
     <row r="2058">
       <c r="B2058" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C2058">
@@ -27286,7 +27286,7 @@
     <row r="2060">
       <c r="B2060" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C2060">
@@ -27338,7 +27338,7 @@
     <row r="2064">
       <c r="B2064" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C2064">
@@ -27364,7 +27364,7 @@
     <row r="2066">
       <c r="B2066" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C2066">
@@ -27468,7 +27468,7 @@
     <row r="2074">
       <c r="B2074" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C2074">
@@ -27624,7 +27624,7 @@
     <row r="2086">
       <c r="B2086" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C2086">
@@ -27637,7 +27637,7 @@
     <row r="2087">
       <c r="B2087" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C2087">
@@ -27884,7 +27884,7 @@
     <row r="2106">
       <c r="B2106" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C2106">
@@ -27897,7 +27897,7 @@
     <row r="2107">
       <c r="B2107" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C2107">
@@ -27910,7 +27910,7 @@
     <row r="2108">
       <c r="B2108" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C2108">
@@ -27962,7 +27962,7 @@
     <row r="2112">
       <c r="B2112" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C2112">
@@ -27988,7 +27988,7 @@
     <row r="2114">
       <c r="B2114" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C2114">
@@ -28001,7 +28001,7 @@
     <row r="2115">
       <c r="B2115" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C2115">
@@ -28014,7 +28014,7 @@
     <row r="2116">
       <c r="B2116" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C2116">
@@ -28144,7 +28144,7 @@
     <row r="2126">
       <c r="B2126" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C2126">
@@ -28222,7 +28222,7 @@
     <row r="2132">
       <c r="B2132" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C2132">
@@ -28235,7 +28235,7 @@
     <row r="2133">
       <c r="B2133" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C2133">
@@ -28313,7 +28313,7 @@
     <row r="2139">
       <c r="B2139" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C2139">
@@ -28365,7 +28365,7 @@
     <row r="2143">
       <c r="B2143" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C2143">
@@ -28417,7 +28417,7 @@
     <row r="2147">
       <c r="B2147" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C2147">
@@ -28443,7 +28443,7 @@
     <row r="2149">
       <c r="B2149" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C2149">
@@ -28586,7 +28586,7 @@
     <row r="2160">
       <c r="B2160" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C2160">
@@ -28625,7 +28625,7 @@
     <row r="2163">
       <c r="B2163" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C2163">
@@ -28638,7 +28638,7 @@
     <row r="2164">
       <c r="B2164" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C2164">
@@ -28690,7 +28690,7 @@
     <row r="2168">
       <c r="B2168" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C2168">
@@ -28859,7 +28859,7 @@
     <row r="2181">
       <c r="B2181" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C2181">
@@ -28911,7 +28911,7 @@
     <row r="2185">
       <c r="B2185" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C2185">
@@ -29015,7 +29015,7 @@
     <row r="2193">
       <c r="B2193" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C2193">
@@ -29457,7 +29457,7 @@
     <row r="2227">
       <c r="B2227" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C2227">
@@ -29613,7 +29613,7 @@
     <row r="2239">
       <c r="B2239" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C2239">
@@ -29626,7 +29626,7 @@
     <row r="2240">
       <c r="B2240" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C2240">
@@ -29943,7 +29943,7 @@
     <row r="2264">
       <c r="B2264" t="inlineStr">
         <is>
-          <t>Dzilam de Bravo</t>
+          <t>Dzilam De Bravo</t>
         </is>
       </c>
       <c r="C2264">
@@ -30806,7 +30806,7 @@
     <row r="2330">
       <c r="B2330" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C2330">
@@ -30832,7 +30832,7 @@
     <row r="2332">
       <c r="B2332" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C2332">
@@ -30871,7 +30871,7 @@
     <row r="2335">
       <c r="B2335" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C2335">
@@ -31001,7 +31001,7 @@
     <row r="2345">
       <c r="B2345" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C2345">
@@ -31079,7 +31079,7 @@
     <row r="2351">
       <c r="B2351" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C2351">
@@ -31144,7 +31144,7 @@
     <row r="2356">
       <c r="B2356" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C2356">
@@ -31157,7 +31157,7 @@
     <row r="2357">
       <c r="B2357" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C2357">
@@ -31170,7 +31170,7 @@
     <row r="2358">
       <c r="B2358" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C2358">
@@ -31248,7 +31248,7 @@
     <row r="2364">
       <c r="B2364" t="inlineStr">
         <is>
-          <t>Santa María de la Paz</t>
+          <t>Santa María De La Paz</t>
         </is>
       </c>
       <c r="C2364">
@@ -31326,7 +31326,7 @@
     <row r="2370">
       <c r="B2370" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C2370">
@@ -31339,7 +31339,7 @@
     <row r="2371">
       <c r="B2371" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C2371">
@@ -31365,7 +31365,7 @@
     <row r="2373">
       <c r="B2373" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C2373">
@@ -31443,7 +31443,7 @@
     <row r="2379">
       <c r="B2379" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C2379">
@@ -31495,7 +31495,7 @@
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2383">
@@ -31503,41 +31503,6 @@
       </c>
       <c r="D2383">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2385">
-      <c r="A2385" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="2386">
-      <c r="A2386" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2387">
-      <c r="A2387" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="2388">
-      <c r="A2388" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2389">
-      <c r="A2389" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
